--- a/Hạnh. trang IE_Schedule of project.xlsx
+++ b/Hạnh. trang IE_Schedule of project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\04. Activity\FY25\1. Master schedule project\trang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnintern06\Downloads\factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F2857-47DE-47A6-8D6D-40CDA4364799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC8ECE-C662-4497-8E30-4BCC97B40254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Schedule of Manage Rbox CDs on Exim system (collaborate with IS)</t>
   </si>
@@ -444,12 +433,21 @@
   <si>
     <t>Slg TX :100 pcs=&gt; làm sao hệ thống hiểu để lấy tờ khai 90 và 10</t>
   </si>
+  <si>
+    <t>sửa logic chỗ này</t>
+  </si>
+  <si>
+    <t>(filter theo thời gian hết hạn)</t>
+  </si>
+  <si>
+    <t>Mục đích cuối cùng tìm tờ khai tái xuất có số lượng hàng lớn nhất và tìm tổng các tờ khai tạm nhập có số lượng hàng bằng số lượng hàng bên tái xuất rồi đưa ra màn hình</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -535,6 +533,12 @@
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -953,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1093,6 +1097,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,9 +1152,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3249,7 +3254,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Cộng tổng số lượng tạm nhập (B) của các tờ khai đến khi tổng đó lớn hơn hoặc bằng số lượng tái xuất (A)</a:t>
           </a:r>
         </a:p>
@@ -4183,7 +4192,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>316451</xdr:colOff>
+      <xdr:colOff>332619</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>97215</xdr:rowOff>
     </xdr:to>
@@ -4200,8 +4209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7366042" y="9765504"/>
-          <a:ext cx="2180134" cy="466311"/>
+          <a:off x="7317812" y="9792869"/>
+          <a:ext cx="2176950" cy="479465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4237,12 +4246,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Lọc</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> tờ khai có số lượng tái xuất (A) &gt; hoặc = số lượng tạm nhập (B)</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tờ khai có số lượng tái xuất (A) &gt; hoặc = số lượng tạm nhập (B) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4252,7 +4269,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>445584</xdr:colOff>
+      <xdr:colOff>453668</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>58156</xdr:rowOff>
     </xdr:from>
@@ -4279,8 +4296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8456109" y="8573506"/>
-          <a:ext cx="18205" cy="1191998"/>
+          <a:off x="8406287" y="8570180"/>
+          <a:ext cx="10121" cy="1222689"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4380,13 +4397,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>356063</xdr:colOff>
+      <xdr:colOff>356062</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>97215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>445585</xdr:colOff>
+      <xdr:colOff>453668</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>120341</xdr:rowOff>
     </xdr:to>
@@ -4406,8 +4423,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8397884" y="10302572"/>
-          <a:ext cx="89522" cy="5738126"/>
+          <a:off x="8308681" y="10272334"/>
+          <a:ext cx="97606" cy="5919555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5778,15 +5795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>316451</xdr:colOff>
+      <xdr:colOff>332619</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>25305</xdr:rowOff>
+      <xdr:rowOff>23792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>588928</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>30080</xdr:rowOff>
+      <xdr:rowOff>28567</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5804,8 +5821,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9582915" y="10067376"/>
-          <a:ext cx="2109442" cy="4775"/>
+          <a:off x="9494762" y="10032602"/>
+          <a:ext cx="2070595" cy="4775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6657,15 +6674,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>578304</xdr:colOff>
+      <xdr:colOff>687161</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558712</xdr:colOff>
+      <xdr:rowOff>31297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55248</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>139952</xdr:rowOff>
+      <xdr:rowOff>31095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6688,7 +6705,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="578304" y="15978868"/>
+          <a:off x="687161" y="15951654"/>
           <a:ext cx="4348301" cy="1632655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10909,17 +10926,17 @@
   <sheetData>
     <row r="1" spans="2:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:71" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -10930,10 +10947,10 @@
     <row r="4" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:71" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -11010,82 +11027,82 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="61" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <v>2025</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="67"/>
     </row>
     <row r="13" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="66" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66" t="s">
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66" t="s">
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="67" t="s">
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="69"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71"/>
     </row>
     <row r="14" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="26" t="s">
         <v>10</v>
       </c>
@@ -11145,13 +11162,13 @@
       </c>
     </row>
     <row r="15" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="34" t="s">
         <v>29</v>
       </c>
@@ -11221,13 +11238,13 @@
       <c r="BS15" s="4"/>
     </row>
     <row r="16" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="34" t="s">
         <v>29</v>
       </c>
@@ -11297,13 +11314,13 @@
       <c r="BS16" s="4"/>
     </row>
     <row r="17" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="34" t="s">
         <v>29</v>
       </c>
@@ -11373,13 +11390,13 @@
       <c r="BS17" s="4"/>
     </row>
     <row r="18" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="34" t="s">
         <v>29</v>
       </c>
@@ -11449,13 +11466,13 @@
       <c r="BS18" s="4"/>
     </row>
     <row r="19" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="34" t="s">
         <v>28</v>
       </c>
@@ -11753,11 +11770,6 @@
     <row r="36" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B12:C14"/>
@@ -11768,6 +11780,11 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.118110236220472" footer="0.196850393700787"/>
@@ -11778,10 +11795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8C7092-D8B9-4BEA-9558-9A0CED40E9FC}">
-  <dimension ref="A4:AI75"/>
+  <dimension ref="A4:AI96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB96" sqref="AB96"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11825,22 +11842,25 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="71">
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z5" s="72">
         <v>1</v>
       </c>
-      <c r="AA5" s="72" t="s">
+      <c r="AA5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="72" t="s">
+      <c r="AC5" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="72" t="s">
+      <c r="AD5" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" s="71" t="s">
+      <c r="AE5" s="72" t="s">
         <v>70</v>
       </c>
       <c r="AG5" s="52" t="s">
@@ -11854,12 +11874,15 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="71"/>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="72"/>
       <c r="AG6" s="52" t="s">
         <v>97</v>
       </c>
@@ -11869,12 +11892,12 @@
       <c r="AI6" s="52"/>
     </row>
     <row r="7" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="71"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="72"/>
       <c r="AG7" s="52" t="s">
         <v>99</v>
       </c>
@@ -11884,12 +11907,12 @@
       <c r="AI7" s="52"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="72"/>
       <c r="AG8" s="52" t="s">
         <v>101</v>
       </c>
@@ -11899,12 +11922,12 @@
       <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="72"/>
       <c r="AG9" s="52" t="s">
         <v>103</v>
       </c>
@@ -12033,6 +12056,9 @@
         <v>112</v>
       </c>
     </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA28" s="78"/>
+    </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
@@ -12063,7 +12089,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -12071,9 +12097,33 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O37" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" s="78"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="78"/>
+    </row>
     <row r="75" spans="2:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="53" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB96">
+        <f>+K91</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12086,7 +12136,8 @@
     <mergeCell ref="AD5:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12094,7 +12145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118F87E6-8ED5-4601-BEB2-D0A459DCD84C}">
   <dimension ref="A4:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
@@ -12139,22 +12190,22 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="71">
+      <c r="Z5" s="72">
         <v>1</v>
       </c>
-      <c r="AA5" s="72" t="s">
+      <c r="AA5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="72" t="s">
+      <c r="AC5" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="72" t="s">
+      <c r="AD5" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" s="71" t="s">
+      <c r="AE5" s="72" t="s">
         <v>70</v>
       </c>
       <c r="AG5" s="52" t="s">
@@ -12168,12 +12219,12 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="71"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="72"/>
       <c r="AG6" s="52" t="s">
         <v>97</v>
       </c>
@@ -12183,12 +12234,12 @@
       <c r="AI6" s="52"/>
     </row>
     <row r="7" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="71"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="72"/>
       <c r="AG7" s="52" t="s">
         <v>99</v>
       </c>
@@ -12198,12 +12249,12 @@
       <c r="AI7" s="52"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="72"/>
       <c r="AG8" s="52" t="s">
         <v>101</v>
       </c>
@@ -12213,12 +12264,12 @@
       <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="72"/>
       <c r="AG9" s="52" t="s">
         <v>103</v>
       </c>
@@ -12474,7 +12525,7 @@
       <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="77" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12482,7 +12533,7 @@
       <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">

--- a/Hạnh. trang IE_Schedule of project.xlsx
+++ b/Hạnh. trang IE_Schedule of project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnintern06\Downloads\factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC8ECE-C662-4497-8E30-4BCC97B40254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB04D0-8FCC-495A-8377-1B67FAA78D7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
   <si>
     <t>Schedule of Manage Rbox CDs on Exim system (collaborate with IS)</t>
   </si>
@@ -432,15 +432,6 @@
   </si>
   <si>
     <t>Slg TX :100 pcs=&gt; làm sao hệ thống hiểu để lấy tờ khai 90 và 10</t>
-  </si>
-  <si>
-    <t>sửa logic chỗ này</t>
-  </si>
-  <si>
-    <t>(filter theo thời gian hết hạn)</t>
-  </si>
-  <si>
-    <t>Mục đích cuối cùng tìm tờ khai tái xuất có số lượng hàng lớn nhất và tìm tổng các tờ khai tạm nhập có số lượng hàng bằng số lượng hàng bên tái xuất rồi đưa ra màn hình</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1089,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,7 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2545,16 +2536,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434837</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>151572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>48867</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>135007</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244336</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>359390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>654553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2569,8 +2560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178162" y="475422"/>
-          <a:ext cx="833230" cy="326335"/>
+          <a:off x="244336" y="3788390"/>
+          <a:ext cx="826303" cy="295163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2620,16 +2611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>372718</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251490</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>246220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2644,8 +2635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3506443" y="2241274"/>
-          <a:ext cx="2173357" cy="878785"/>
+          <a:off x="1550354" y="3675220"/>
+          <a:ext cx="1549600" cy="515780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,15 +2687,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1732</xdr:rowOff>
+      <xdr:colOff>477982</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2719,8 +2710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="5040457"/>
-          <a:ext cx="3124200" cy="1893743"/>
+          <a:off x="2989118" y="4643005"/>
+          <a:ext cx="3106882" cy="1629641"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2836,14 +2827,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>434391</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>29730</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>172661</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10266</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2858,8 +2849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3568116" y="10650105"/>
-          <a:ext cx="2176670" cy="466311"/>
+          <a:off x="3577641" y="8751909"/>
+          <a:ext cx="2187556" cy="470393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,15 +2901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371288</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>16742</xdr:rowOff>
+      <xdr:colOff>357680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>109558</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>153140</xdr:rowOff>
+      <xdr:colOff>95950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2933,8 +2924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505013" y="8208242"/>
-          <a:ext cx="2176670" cy="460248"/>
+          <a:off x="3500930" y="6847528"/>
+          <a:ext cx="2187556" cy="462969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2982,14 +2973,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>426057</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>35685</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164327</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>75473</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3004,8 +2995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3559782" y="9036810"/>
-          <a:ext cx="2176670" cy="687488"/>
+          <a:off x="3569307" y="7614864"/>
+          <a:ext cx="2187556" cy="692930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3052,15 +3043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>434391</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>41360</xdr:rowOff>
+      <xdr:colOff>475213</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>172661</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>21895</xdr:rowOff>
+      <xdr:colOff>213483</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>49109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3075,8 +3066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3568116" y="13090610"/>
-          <a:ext cx="2176670" cy="466310"/>
+          <a:off x="3618463" y="11648252"/>
+          <a:ext cx="2187556" cy="470393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3123,15 +3114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>430819</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>115456</xdr:rowOff>
+      <xdr:colOff>471640</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>169089</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>95991</xdr:rowOff>
+      <xdr:colOff>209910</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>109598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3146,8 +3137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556210" y="14391050"/>
-          <a:ext cx="2167145" cy="462738"/>
+          <a:off x="3614890" y="12688456"/>
+          <a:ext cx="2187556" cy="470392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3194,15 +3185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>443916</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155245</xdr:rowOff>
+      <xdr:colOff>416702</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>96461</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40031</xdr:rowOff>
+      <xdr:colOff>69247</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3217,8 +3208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="443916" y="10412479"/>
-          <a:ext cx="2170717" cy="849193"/>
+          <a:off x="416702" y="8550852"/>
+          <a:ext cx="2183474" cy="864501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3268,16 +3259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>240197</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>135007</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241852</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>504110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251490</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>506972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3289,14 +3280,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4593122" y="801757"/>
-          <a:ext cx="1655" cy="1439517"/>
+        <a:xfrm flipV="1">
+          <a:off x="1070639" y="3933110"/>
+          <a:ext cx="479715" cy="2862"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3324,16 +3315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>482744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>407842</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>504110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3345,13 +3336,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4581525" y="3120059"/>
-          <a:ext cx="0" cy="775666"/>
+        <a:xfrm flipV="1">
+          <a:off x="3099954" y="3911744"/>
+          <a:ext cx="425161" cy="21366"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3380,15 +3372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>213014</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>240423</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>16742</xdr:rowOff>
+      <xdr:colOff>226816</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3406,8 +3398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="6934200"/>
-          <a:ext cx="11823" cy="1274042"/>
+          <a:off x="4542559" y="6272646"/>
+          <a:ext cx="13802" cy="415307"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3436,15 +3428,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>243995</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19641</xdr:rowOff>
+      <xdr:colOff>216781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>244978</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>21397</xdr:rowOff>
+      <xdr:colOff>217764</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3459,8 +3451,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4596920" y="8696916"/>
-          <a:ext cx="983" cy="325606"/>
+          <a:off x="4584674" y="7299462"/>
+          <a:ext cx="983" cy="328328"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3490,14 +3482,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295192</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>75473</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>303526</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>29730</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111373</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3515,8 +3507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648117" y="9724298"/>
-          <a:ext cx="8334" cy="925807"/>
+          <a:off x="4663085" y="8307794"/>
+          <a:ext cx="8334" cy="444115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3546,14 +3538,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>303526</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10266</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>303526</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>41360</xdr:rowOff>
+      <xdr:colOff>344348</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3571,8 +3563,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4656451" y="11116416"/>
-          <a:ext cx="0" cy="1974194"/>
+          <a:off x="4671419" y="9222302"/>
+          <a:ext cx="40822" cy="2425950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3601,15 +3593,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>299955</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>21895</xdr:rowOff>
+      <xdr:colOff>340775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>49109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>303527</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>115456</xdr:rowOff>
+      <xdr:colOff>344348</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3627,8 +3619,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4639783" y="13493817"/>
-          <a:ext cx="3572" cy="897233"/>
+          <a:off x="4708668" y="12118645"/>
+          <a:ext cx="3573" cy="569811"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3657,15 +3649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10391</xdr:rowOff>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>463789</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18367</xdr:rowOff>
+      <xdr:colOff>368539</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3683,8 +3675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="5858741"/>
-          <a:ext cx="2330689" cy="1932026"/>
+          <a:off x="6096000" y="5457826"/>
+          <a:ext cx="2238903" cy="250800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3714,13 +3706,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>227929</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>262344</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228912</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>21320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3736,8 +3728,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4580854" y="4653369"/>
-          <a:ext cx="983" cy="406676"/>
+          <a:off x="4557474" y="4625661"/>
+          <a:ext cx="983" cy="19614"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3766,15 +3758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>407842</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>168852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>131517</xdr:colOff>
+      <xdr:colOff>148834</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3789,8 +3781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="3895725"/>
-          <a:ext cx="2179392" cy="771525"/>
+          <a:off x="3525115" y="3597852"/>
+          <a:ext cx="2165537" cy="627784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3916,7 +3908,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3924,10 +3916,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Không có TK nào gần hết hạn</a:t>
+            <a:t>Không có tờ khai nào gần hết hạn</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1400" b="1" baseline="0">
+            <a:rPr lang="vi-VN" sz="1300" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3938,7 +3930,7 @@
             <a:t> ( </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4040,15 +4032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>595163</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18367</xdr:rowOff>
+      <xdr:colOff>499913</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>332415</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>58156</xdr:rowOff>
+      <xdr:colOff>237165</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4063,8 +4055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7386488" y="7562167"/>
-          <a:ext cx="2175652" cy="687489"/>
+          <a:off x="7317092" y="5828617"/>
+          <a:ext cx="2186537" cy="692931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4110,16 +4102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113160</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>439419</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>86147</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>126767</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>453026</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4134,7 +4126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10604267" y="11062410"/>
+          <a:off x="11230196" y="8055232"/>
           <a:ext cx="2163223" cy="861951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4176,7 +4168,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>( slg tờ khai ít nhất)</a:t>
+            <a:t>( số lượng tờ khai ít nhất)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4186,14 +4178,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>574717</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>116679</xdr:rowOff>
+      <xdr:colOff>506681</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>332619</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>97215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4209,8 +4201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7317812" y="9792869"/>
-          <a:ext cx="2176950" cy="479465"/>
+          <a:off x="7323860" y="7124357"/>
+          <a:ext cx="2207187" cy="470394"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4259,7 +4251,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> tờ khai có số lượng tái xuất (A) &gt; hoặc = số lượng tạm nhập (B) </a:t>
+            <a:t> tờ khai có số lượng tái xuất (A) &lt; hoặc = số lượng tạm nhập (B) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4269,15 +4261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>453668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>58156</xdr:rowOff>
+      <xdr:colOff>368540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>463789</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>116679</xdr:rowOff>
+      <xdr:colOff>385633</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4295,9 +4287,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8406287" y="8570180"/>
-          <a:ext cx="10121" cy="1222689"/>
+        <a:xfrm>
+          <a:off x="8410361" y="6521548"/>
+          <a:ext cx="17093" cy="602809"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4397,13 +4389,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>356062</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>356063</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>97215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>453668</xdr:colOff>
+      <xdr:colOff>385633</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>120341</xdr:rowOff>
     </xdr:to>
@@ -4423,8 +4415,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8308681" y="10272334"/>
-          <a:ext cx="97606" cy="5919555"/>
+          <a:off x="8397884" y="7594751"/>
+          <a:ext cx="29570" cy="7615911"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4454,12 +4446,12 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>356063</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>86147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>582450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596058</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>120341</xdr:rowOff>
     </xdr:to>
@@ -4480,8 +4472,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8397884" y="11924361"/>
-          <a:ext cx="3287995" cy="3789766"/>
+          <a:off x="8397884" y="8917183"/>
+          <a:ext cx="3913924" cy="6293479"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4510,15 +4502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>588928</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>295663</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>141677</xdr:rowOff>
+      <xdr:colOff>112678</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>431734</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4533,8 +4525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11692357" y="9797268"/>
-          <a:ext cx="2156020" cy="549766"/>
+          <a:off x="11216107" y="7075839"/>
+          <a:ext cx="2156020" cy="549767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,16 +4572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114599</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>454778</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1665501</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88369</xdr:rowOff>
+      <xdr:colOff>781037</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4604,8 +4596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15440324" y="10620376"/>
-          <a:ext cx="2160502" cy="1059918"/>
+          <a:off x="14619814" y="7946573"/>
+          <a:ext cx="2163223" cy="1068082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4678,16 +4670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>582450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>141677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>442296</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>578367</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596058</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4704,9 +4696,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11685879" y="10020463"/>
-          <a:ext cx="1084488" cy="1041947"/>
+        <a:xfrm>
+          <a:off x="12294117" y="7625606"/>
+          <a:ext cx="17691" cy="429626"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4758,7 +4750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9678723" y="10358556"/>
+          <a:off x="9678723" y="9773449"/>
           <a:ext cx="2657352" cy="534682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4788,17 +4780,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Slg TN &gt; hoặc = Slg TX</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4860,17 +4849,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Slg TN &lt; Slg TX</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4878,16 +4864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>117201</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>4536</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>470987</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1663621</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44326</xdr:rowOff>
+      <xdr:colOff>792764</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4902,7 +4888,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15506880" y="12332607"/>
+          <a:off x="14636023" y="9502322"/>
           <a:ext cx="2158741" cy="692933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4949,16 +4935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>585250</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>585611</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>4536</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>311747</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>325715</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4977,8 +4963,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16520575" y="11680294"/>
-          <a:ext cx="361" cy="563867"/>
+          <a:off x="15701426" y="9014655"/>
+          <a:ext cx="13968" cy="487667"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5006,16 +4992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>249169</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>97085</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518590</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>568225</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>125668</xdr:rowOff>
+      <xdr:colOff>225325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46747</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5030,8 +5016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11964919" y="13894728"/>
-          <a:ext cx="2156020" cy="681726"/>
+          <a:off x="11622019" y="10589078"/>
+          <a:ext cx="2156020" cy="710776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5081,16 +5067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>253514</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>78923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>124864</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>2295290</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>1199297</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5105,8 +5091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16060189" y="13506451"/>
-          <a:ext cx="2170426" cy="1104900"/>
+          <a:off x="15030871" y="11005459"/>
+          <a:ext cx="2170426" cy="1114424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5169,15 +5155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>568225</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>124864</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>111377</xdr:rowOff>
+      <xdr:colOff>225325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>253514</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5195,9 +5181,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14065150" y="14058901"/>
-          <a:ext cx="1995039" cy="73276"/>
+        <a:xfrm>
+          <a:off x="13778039" y="10944466"/>
+          <a:ext cx="1252832" cy="618205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5225,16 +5211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>102536</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>584251</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>97085</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371958</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>470987</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5247,14 +5233,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="41" idx="2"/>
+          <a:stCxn id="41" idx="1"/>
           <a:endCxn id="43" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13042929" y="13025540"/>
-          <a:ext cx="3543322" cy="869188"/>
+          <a:off x="12700029" y="9848789"/>
+          <a:ext cx="1935994" cy="740289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5282,16 +5268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>439419</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>44185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114599</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>144348</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>453026</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>454778</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5310,8 +5296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12717144" y="11150335"/>
-          <a:ext cx="2723180" cy="262088"/>
+          <a:off x="13393419" y="8480614"/>
+          <a:ext cx="1226395" cy="5594"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5341,12 +5327,12 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>356063</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>125668</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>102536</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371958</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>120341</xdr:rowOff>
     </xdr:to>
@@ -5367,8 +5353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8397884" y="14576454"/>
-          <a:ext cx="4645045" cy="1137673"/>
+          <a:off x="8397884" y="11299854"/>
+          <a:ext cx="4302145" cy="3910808"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5524,15 +5510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>96461</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>97638</xdr:rowOff>
+      <xdr:colOff>69247</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>434391</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>100365</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5550,8 +5536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2614633" y="10837076"/>
-          <a:ext cx="945149" cy="2727"/>
+          <a:off x="2600176" y="8983103"/>
+          <a:ext cx="977465" cy="4003"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5579,16 +5565,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228776</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40031</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24669</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344940</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>33078</xdr:rowOff>
+      <xdr:colOff>344349</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5600,13 +5586,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537428" y="11122161"/>
-          <a:ext cx="3180729" cy="1815221"/>
+          <a:off x="2535805" y="9117232"/>
+          <a:ext cx="2138089" cy="2156205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5635,15 +5621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64107</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>53473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594121</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21851</xdr:rowOff>
+      <xdr:colOff>390678</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>162331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>308371</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>130708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5658,8 +5644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4417032" y="11483473"/>
-          <a:ext cx="530014" cy="292228"/>
+          <a:off x="4758571" y="9619295"/>
+          <a:ext cx="530014" cy="294949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5715,15 +5701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>387117</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>92448</xdr:rowOff>
+      <xdr:colOff>319080</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>307531</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>53648</xdr:rowOff>
+      <xdr:colOff>239494</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5738,8 +5724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2911242" y="10388973"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="2850009" y="8678556"/>
+          <a:ext cx="532735" cy="287771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5795,15 +5781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>332619</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23792</xdr:rowOff>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>588928</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28567</xdr:rowOff>
+      <xdr:colOff>112678</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25304</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5820,9 +5806,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9494762" y="10032602"/>
-          <a:ext cx="2070595" cy="4775"/>
+        <a:xfrm flipV="1">
+          <a:off x="9531047" y="7350723"/>
+          <a:ext cx="1685060" cy="8831"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5931,15 +5917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>447948</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1600</xdr:rowOff>
+      <xdr:colOff>230233</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>368362</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>126085</xdr:rowOff>
+      <xdr:colOff>150647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5954,7 +5940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10326734" y="9717100"/>
+          <a:off x="10109019" y="7199778"/>
           <a:ext cx="532735" cy="287771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6091,15 +6077,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>352698</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38339</xdr:rowOff>
+      <xdr:colOff>203020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>36739</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6114,8 +6100,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13849623" y="10820639"/>
-          <a:ext cx="515437" cy="322250"/>
+          <a:off x="13755734" y="8311482"/>
+          <a:ext cx="518159" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6171,13 +6157,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>356062</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>356063</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1210077</xdr:colOff>
+      <xdr:colOff>114084</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>120341</xdr:rowOff>
     </xdr:to>
@@ -6197,8 +6183,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8366587" y="14611351"/>
-          <a:ext cx="8778815" cy="987115"/>
+          <a:off x="8397884" y="12119883"/>
+          <a:ext cx="7718200" cy="3090779"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6227,15 +6213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>56514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>465813</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>23533</xdr:rowOff>
+      <xdr:colOff>524723</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141295</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6249,9 +6235,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11036507" y="14507300"/>
-          <a:ext cx="532735" cy="293590"/>
+        <a:xfrm rot="10648548" flipV="1">
+          <a:off x="10915632" y="11825207"/>
+          <a:ext cx="828845" cy="679784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6287,18 +6273,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>OK</a:t>
+            <a:t>ok</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6306,16 +6287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>602821</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>131733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>58750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>492578</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>508658</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6330,8 +6311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14751776" y="14264607"/>
-          <a:ext cx="518159" cy="324972"/>
+          <a:off x="14155535" y="11058269"/>
+          <a:ext cx="518159" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6387,14 +6368,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>221751</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40031</xdr:rowOff>
+      <xdr:colOff>196578</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>227326</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>202153</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>60546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6413,8 +6394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1526676" y="10984256"/>
-          <a:ext cx="5575" cy="992065"/>
+          <a:off x="1502864" y="9415353"/>
+          <a:ext cx="5575" cy="918586"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6443,15 +6424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>336833</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>30888</xdr:rowOff>
+      <xdr:colOff>296012</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>61391</xdr:rowOff>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6466,8 +6447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="336833" y="14073459"/>
-          <a:ext cx="2398202" cy="520361"/>
+          <a:off x="296012" y="11569745"/>
+          <a:ext cx="2398202" cy="520360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6513,16 +6494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>588385</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>60560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>508799</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21760</xdr:rowOff>
+      <xdr:colOff>306346</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6537,8 +6518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2502910" y="11490560"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="2817482" y="9532370"/>
+          <a:ext cx="526551" cy="272927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6595,14 +6576,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>546144</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>116467</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466558</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>77667</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6617,8 +6598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1241469" y="11384542"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="1240108" y="9777539"/>
+          <a:ext cx="532736" cy="287771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6682,7 +6663,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>55248</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>31095</xdr:rowOff>
+      <xdr:rowOff>31094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6718,15 +6699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1210077</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>114084</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1225635</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>87467</xdr:rowOff>
+      <xdr:colOff>164277</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6745,8 +6726,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17145402" y="14839951"/>
-          <a:ext cx="15558" cy="954241"/>
+          <a:off x="16116084" y="12119883"/>
+          <a:ext cx="50193" cy="1024257"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6774,16 +6755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>191860</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>87467</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>2422695</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>117971</xdr:rowOff>
+      <xdr:colOff>1361337</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>125394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6798,8 +6779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15963900" y="15794192"/>
-          <a:ext cx="2394120" cy="516279"/>
+          <a:off x="14969217" y="13144140"/>
+          <a:ext cx="2394120" cy="520361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6845,16 +6826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>478979</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>930489</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>124061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1460503</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>85261</xdr:rowOff>
+      <xdr:colOff>396672</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>45678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6869,8 +6850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16865814" y="15183086"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="15868658" y="12488006"/>
+          <a:ext cx="530014" cy="280351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6926,14 +6907,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>329616</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>302402</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>60546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199611</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>172397</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>91050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6949,8 +6930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="329616" y="11976321"/>
-          <a:ext cx="2394120" cy="516279"/>
+          <a:off x="302402" y="10333939"/>
+          <a:ext cx="2400924" cy="520361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7009,15 +6990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>223792</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>188827</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>91050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>229648</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>30888</xdr:rowOff>
+      <xdr:colOff>196578</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7034,9 +7015,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1530078" y="12827336"/>
-          <a:ext cx="5856" cy="1246123"/>
+        <a:xfrm flipH="1">
+          <a:off x="1495113" y="10854300"/>
+          <a:ext cx="7751" cy="715445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7065,15 +7046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>545197</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>41036</xdr:rowOff>
+      <xdr:colOff>558804</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>149892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>465611</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>2237</xdr:rowOff>
+      <xdr:colOff>479218</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7088,8 +7069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1239161" y="13267179"/>
-          <a:ext cx="532736" cy="287772"/>
+          <a:off x="1252768" y="11076428"/>
+          <a:ext cx="532736" cy="287773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7145,15 +7126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199611</xdr:colOff>
+      <xdr:colOff>172397</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344348</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>156761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>303526</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>41360</xdr:rowOff>
+      <xdr:rowOff>68573</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7171,8 +7152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2723736" y="12234461"/>
-          <a:ext cx="1932715" cy="532299"/>
+          <a:off x="2703326" y="10594120"/>
+          <a:ext cx="2008915" cy="1054132"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7200,16 +7181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>463339</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>8825</xdr:rowOff>
+      <xdr:colOff>53069</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585804</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7224,8 +7205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="12287250"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="3196319" y="10865303"/>
+          <a:ext cx="532735" cy="287772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7280,16 +7261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>254628</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175042</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>8825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>463682</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>71129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>384097</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>24906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7304,8 +7285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14361153" y="14716125"/>
-          <a:ext cx="530014" cy="285050"/>
+          <a:off x="12179432" y="13446950"/>
+          <a:ext cx="532736" cy="280349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7356,6 +7337,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264968</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278338</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Straight Arrow Connector 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D019EE4-3342-4CC7-9BFB-5AA2FB1FCECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4632861" y="4301093"/>
+          <a:ext cx="13370" cy="439636"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10926,17 +10962,17 @@
   <sheetData>
     <row r="1" spans="2:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:71" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -10947,10 +10983,10 @@
     <row r="4" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:71" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -11027,82 +11063,82 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="63" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="66">
         <v>2025</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="68"/>
     </row>
     <row r="13" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="68" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68" t="s">
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="69" t="s">
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="72"/>
     </row>
     <row r="14" spans="2:71" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="26" t="s">
         <v>10</v>
       </c>
@@ -11162,13 +11198,13 @@
       </c>
     </row>
     <row r="15" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="34" t="s">
         <v>29</v>
       </c>
@@ -11238,13 +11274,13 @@
       <c r="BS15" s="4"/>
     </row>
     <row r="16" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="34" t="s">
         <v>29</v>
       </c>
@@ -11314,13 +11350,13 @@
       <c r="BS16" s="4"/>
     </row>
     <row r="17" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="34" t="s">
         <v>29</v>
       </c>
@@ -11390,13 +11426,13 @@
       <c r="BS17" s="4"/>
     </row>
     <row r="18" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="34" t="s">
         <v>29</v>
       </c>
@@ -11466,13 +11502,13 @@
       <c r="BS18" s="4"/>
     </row>
     <row r="19" spans="2:71" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="34" t="s">
         <v>28</v>
       </c>
@@ -11795,10 +11831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8C7092-D8B9-4BEA-9558-9A0CED40E9FC}">
-  <dimension ref="A4:AI96"/>
+  <dimension ref="A5:AF96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11812,308 +11848,69 @@
     <col min="34" max="34" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="Z4" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH4" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="52" t="s">
-        <v>93</v>
-      </c>
+    <row r="5" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="49"/>
     </row>
-    <row r="5" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z5" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE5" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH5" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>96</v>
-      </c>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="49"/>
     </row>
-    <row r="6" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="72"/>
-      <c r="AG6" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH6" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI6" s="52"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="49"/>
     </row>
-    <row r="7" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="72"/>
-      <c r="AG7" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH7" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI7" s="52"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="72"/>
-      <c r="AG8" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH8" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI8" s="52"/>
-    </row>
-    <row r="9" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="72"/>
-      <c r="AG9" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI9" s="52"/>
-    </row>
-    <row r="10" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z10" s="45">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE10" s="45"/>
-      <c r="AG10" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH10" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI10" s="52"/>
-    </row>
-    <row r="11" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="49">
-        <v>45813</v>
-      </c>
-      <c r="Z11" s="45">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB11" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE11" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI11" s="52"/>
-    </row>
-    <row r="12" spans="1:35" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="49">
-        <f>B11+60</f>
-        <v>45873</v>
-      </c>
-      <c r="Z12" s="45">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD12" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" s="35"/>
-    </row>
-    <row r="13" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="49">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="49">
-        <f>B13+364</f>
-        <v>46234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="AA17" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="AA18" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="AA19" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="AA20" s="46" t="s">
-        <v>112</v>
-      </c>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA28" s="78"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA28" s="54"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="51">
-        <v>80</v>
-      </c>
+      <c r="A30" s="51"/>
       <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
-        <v>30</v>
-      </c>
-      <c r="B31" s="51">
-        <v>6.5</v>
-      </c>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>7.8</v>
+    <row r="36" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF36" s="46" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>1.9</v>
+    <row r="37" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="AF37" s="46" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O37" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="P37" s="78"/>
+    <row r="38" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF38" s="46" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
+    <row r="39" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AF39" s="46" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="78"/>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="75" spans="2:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B75" s="53" t="s">
@@ -12127,14 +11924,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AE5:AE9"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AA9"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AC9"/>
-    <mergeCell ref="AD5:AD9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12190,22 +11979,22 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="72">
+      <c r="Z5" s="73">
         <v>1</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="74" t="s">
+      <c r="AB5" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="73" t="s">
+      <c r="AC5" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="73" t="s">
+      <c r="AD5" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" s="72" t="s">
+      <c r="AE5" s="73" t="s">
         <v>70</v>
       </c>
       <c r="AG5" s="52" t="s">
@@ -12219,12 +12008,12 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="72"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="73"/>
       <c r="AG6" s="52" t="s">
         <v>97</v>
       </c>
@@ -12234,12 +12023,12 @@
       <c r="AI6" s="52"/>
     </row>
     <row r="7" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="72"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="73"/>
       <c r="AG7" s="52" t="s">
         <v>99</v>
       </c>
@@ -12249,12 +12038,12 @@
       <c r="AI7" s="52"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="72"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="73"/>
       <c r="AG8" s="52" t="s">
         <v>101</v>
       </c>
@@ -12264,12 +12053,12 @@
       <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="72"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="73"/>
       <c r="AG9" s="52" t="s">
         <v>103</v>
       </c>
@@ -12525,7 +12314,7 @@
       <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="78" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12533,7 +12322,7 @@
       <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
